--- a/docs/Examples/Example1a_Gas_Cell_Calibration/Fityk_results.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/Fityk_results.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\DiadFit_outer\docs\Examples\Diad_Fitting_Nov22nd2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\DiadFit_outer\docs\Examples\Example1a_Gas_Cell_Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940268D-240E-4C0A-ABDC-05E317F9BA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F431A0-F079-43EB-919C-BC18E21BE463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10480" firstSheet="1" activeTab="1" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15360" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
   </bookViews>
   <sheets>
     <sheet name="112820_FULL" sheetId="1" r:id="rId1"/>
-    <sheet name="5thdec" sheetId="8" r:id="rId2"/>
-    <sheet name="NEON" sheetId="4" r:id="rId3"/>
+    <sheet name="NEON" sheetId="4" r:id="rId2"/>
+    <sheet name="5thdec" sheetId="8" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="316">
   <si>
     <t>Date</t>
   </si>
@@ -1022,6 +1022,9 @@
   </si>
   <si>
     <t>POC53</t>
+  </si>
+  <si>
+    <t>Charlotte_Ne_Factor</t>
   </si>
 </sst>
 </file>
@@ -7331,13 +7334,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDC9769-CDC1-424D-9AE4-8B7EF174E4CB}">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD39"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7357,7 +7360,7 @@
     <col min="24" max="24" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7430,8 +7433,11 @@
       <c r="X1" s="8" t="s">
         <v>174</v>
       </c>
+      <c r="Y1" s="8" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44163</v>
       </c>
@@ -7505,8 +7511,12 @@
       <c r="X2" t="s">
         <v>24</v>
       </c>
+      <c r="Y2">
+        <f>G2/F2</f>
+        <v>1.0006108044819504</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44163</v>
       </c>
@@ -7580,8 +7590,12 @@
       <c r="X3" t="s">
         <v>26</v>
       </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y58" si="4">G3/F3</f>
+        <v>1.0006092896737402</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44163</v>
       </c>
@@ -7655,8 +7669,12 @@
       <c r="X4" t="s">
         <v>28</v>
       </c>
+      <c r="Y4">
+        <f t="shared" si="4"/>
+        <v>1.0006002009207968</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44163</v>
       </c>
@@ -7730,8 +7748,12 @@
       <c r="X5" t="s">
         <v>30</v>
       </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>1.0006083807910162</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44163</v>
       </c>
@@ -7805,8 +7827,12 @@
       <c r="X6" t="s">
         <v>32</v>
       </c>
+      <c r="Y6">
+        <f t="shared" si="4"/>
+        <v>1.0006014127449827</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44163</v>
       </c>
@@ -7880,8 +7906,12 @@
       <c r="X7" t="s">
         <v>34</v>
       </c>
+      <c r="Y7">
+        <f t="shared" si="4"/>
+        <v>1.0006147430047598</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44163</v>
       </c>
@@ -7955,8 +7985,12 @@
       <c r="X8" t="s">
         <v>36</v>
       </c>
+      <c r="Y8">
+        <f t="shared" si="4"/>
+        <v>1.0005829327450739</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44163</v>
       </c>
@@ -8030,8 +8064,12 @@
       <c r="X9" t="s">
         <v>38</v>
       </c>
+      <c r="Y9">
+        <f t="shared" si="4"/>
+        <v>1.0005814180212524</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44163</v>
       </c>
@@ -8105,8 +8143,12 @@
       <c r="X10" t="s">
         <v>40</v>
       </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>1.0005538508489544</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44163</v>
       </c>
@@ -8180,8 +8222,12 @@
       <c r="X11" t="s">
         <v>42</v>
       </c>
+      <c r="Y11">
+        <f t="shared" si="4"/>
+        <v>1.0006208023311653</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44163</v>
       </c>
@@ -8255,8 +8301,12 @@
       <c r="X12" t="s">
         <v>44</v>
       </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>1.0006026245721042</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>44163</v>
       </c>
@@ -8330,8 +8380,12 @@
       <c r="X13" t="s">
         <v>46</v>
       </c>
+      <c r="Y13">
+        <f t="shared" si="4"/>
+        <v>1.0005892946352073</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>44163</v>
       </c>
@@ -8405,8 +8459,12 @@
       <c r="X14" t="s">
         <v>48</v>
       </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>1.0006253468741291</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>44163</v>
       </c>
@@ -8423,11 +8481,11 @@
         <v>1387.5509</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F46" si="4">E15-D15</f>
+        <f t="shared" ref="F15:F46" si="5">E15-D15</f>
         <v>104.10749999999985</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:G46" si="5">F15*S15/R15</f>
+        <f t="shared" ref="G15:G46" si="6">F15*S15/R15</f>
         <v>104.16907076659868</v>
       </c>
       <c r="H15">
@@ -8458,11 +8516,11 @@
         <v>1453.7394999999999</v>
       </c>
       <c r="R15">
-        <f t="shared" ref="R15:R46" si="6">Q15-O15</f>
+        <f t="shared" ref="R15:R46" si="7">Q15-O15</f>
         <v>330.28229999999985</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" ref="S15:S46" si="7">V15-T15</f>
+        <f t="shared" ref="S15:S46" si="8">V15-T15</f>
         <v>330.47763400000008</v>
       </c>
       <c r="T15" s="9">
@@ -8480,8 +8538,12 @@
       <c r="X15" t="s">
         <v>50</v>
       </c>
+      <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>1.0005914152832296</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>44163</v>
       </c>
@@ -8498,11 +8560,11 @@
         <v>1387.597</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104.06749999999988</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104.13052891354116</v>
       </c>
       <c r="H16">
@@ -8533,11 +8595,11 @@
         <v>1453.7384</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27759999999989</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T16" s="9">
@@ -8555,8 +8617,12 @@
       <c r="X16" t="s">
         <v>52</v>
       </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>1.0006056541527497</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>44163</v>
       </c>
@@ -8573,11 +8639,11 @@
         <v>1387.6459</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104.02530000000002</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104.08940640558926</v>
       </c>
       <c r="H17">
@@ -8608,11 +8674,11 @@
         <v>1453.7393</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27409999999986</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T17" s="9">
@@ -8630,8 +8696,12 @@
       <c r="X17" t="s">
         <v>54</v>
       </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>1.0006162578294824</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>44163</v>
       </c>
@@ -8648,11 +8718,11 @@
         <v>1387.731</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.96000000000004</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104.02403466767919</v>
       </c>
       <c r="H18">
@@ -8683,11 +8753,11 @@
         <v>1453.7353000000001</v>
       </c>
       <c r="R18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27420000000006</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T18" s="9">
@@ -8705,8 +8775,12 @@
       <c r="X18" t="s">
         <v>56</v>
       </c>
+      <c r="Y18">
+        <f t="shared" si="4"/>
+        <v>1.0006159548641704</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>44163</v>
       </c>
@@ -8723,11 +8797,11 @@
         <v>1387.828</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.87139999999999</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.93390105231551</v>
       </c>
       <c r="H19">
@@ -8758,11 +8832,11 @@
         <v>1453.7365</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27890000000002</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T19" s="9">
@@ -8780,8 +8854,12 @@
       <c r="X19" t="s">
         <v>58</v>
       </c>
+      <c r="Y19">
+        <f t="shared" si="4"/>
+        <v>1.0006017157014877</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>44163</v>
       </c>
@@ -8798,11 +8876,11 @@
         <v>1387.9680000000001</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.76440000000002</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.82988606091523</v>
       </c>
       <c r="H20">
@@ -8833,11 +8911,11 @@
         <v>1453.7345</v>
       </c>
       <c r="R20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.26919999999996</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T20" s="9">
@@ -8855,8 +8933,12 @@
       <c r="X20" t="s">
         <v>60</v>
       </c>
+      <c r="Y20">
+        <f t="shared" si="4"/>
+        <v>1.0006311033544761</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>44163</v>
       </c>
@@ -8873,11 +8955,11 @@
         <v>1388.088</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.66789999999992</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.72993312870469</v>
       </c>
       <c r="H21">
@@ -8908,11 +8990,11 @@
         <v>1453.7339999999999</v>
       </c>
       <c r="R21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.28</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T21" s="9">
@@ -8930,8 +9012,12 @@
       <c r="X21" t="s">
         <v>62</v>
       </c>
+      <c r="Y21">
+        <f t="shared" si="4"/>
+        <v>1.0005983831900209</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>44163</v>
       </c>
@@ -8948,11 +9034,11 @@
         <v>1388.1692</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.59940000000006</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.66274175126912</v>
       </c>
       <c r="H22">
@@ -8983,11 +9069,11 @@
         <v>1453.7357999999999</v>
       </c>
       <c r="R22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27569999999992</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T22" s="9">
@@ -9005,8 +9091,12 @@
       <c r="X22" t="s">
         <v>64</v>
       </c>
+      <c r="Y22">
+        <f t="shared" si="4"/>
+        <v>1.0006114104065185</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>44163</v>
       </c>
@@ -9023,11 +9113,11 @@
         <v>1388.2366</v>
       </c>
       <c r="F23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.54559999999992</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.6057405407995</v>
       </c>
       <c r="H23">
@@ -9058,11 +9148,11 @@
         <v>1453.7366999999999</v>
       </c>
       <c r="R23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.28579999999988</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T23" s="9">
@@ -9080,8 +9170,12 @@
       <c r="X23" t="s">
         <v>66</v>
       </c>
+      <c r="Y23">
+        <f t="shared" si="4"/>
+        <v>1.000580812133008</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>44163</v>
       </c>
@@ -9098,11 +9192,11 @@
         <v>1388.3175000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.50290000000018</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.56718619969467</v>
       </c>
       <c r="H24">
@@ -9133,11 +9227,11 @@
         <v>1453.7382</v>
       </c>
       <c r="R24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27250000000004</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T24" s="9">
@@ -9155,8 +9249,12 @@
       <c r="X24" t="s">
         <v>68</v>
       </c>
+      <c r="Y24">
+        <f t="shared" si="4"/>
+        <v>1.0006211052994118</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>44163</v>
       </c>
@@ -9173,11 +9271,11 @@
         <v>1388.3613</v>
       </c>
       <c r="F25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.4543000000001</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.5214396850218</v>
       </c>
       <c r="H25">
@@ -9208,11 +9306,11 @@
         <v>1453.7348999999999</v>
       </c>
       <c r="R25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.26329999999984</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T25" s="9">
@@ -9230,8 +9328,12 @@
       <c r="X25" t="s">
         <v>70</v>
       </c>
+      <c r="Y25">
+        <f t="shared" si="4"/>
+        <v>1.0006489791629898</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>44163</v>
       </c>
@@ -9248,11 +9350,11 @@
         <v>1388.4059999999999</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.42539999999985</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.4893247187666</v>
       </c>
       <c r="H26">
@@ -9283,11 +9385,11 @@
         <v>1453.7366</v>
       </c>
       <c r="R26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27350000000001</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T26" s="9">
@@ -9305,8 +9407,12 @@
       <c r="X26" t="s">
         <v>72</v>
       </c>
+      <c r="Y26">
+        <f t="shared" si="4"/>
+        <v>1.0006180756252017</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>44163</v>
       </c>
@@ -9323,11 +9429,11 @@
         <v>1388.4529</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.39290000000005</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.45755642682219</v>
       </c>
       <c r="H27">
@@ -9358,11 +9464,11 @@
         <v>1453.7366</v>
       </c>
       <c r="R27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27109999999993</v>
       </c>
       <c r="S27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T27" s="9">
@@ -9380,8 +9486,12 @@
       <c r="X27" t="s">
         <v>74</v>
       </c>
+      <c r="Y27">
+        <f t="shared" si="4"/>
+        <v>1.0006253468741291</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>44163</v>
       </c>
@@ -9398,11 +9508,11 @@
         <v>1388.4870000000001</v>
       </c>
       <c r="F28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.36490000000003</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.42609421051468</v>
       </c>
       <c r="H28">
@@ -9433,11 +9543,11 @@
         <v>1453.7375</v>
       </c>
       <c r="R28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.2820999999999</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T28" s="9">
@@ -9455,8 +9565,12 @@
       <c r="X28" t="s">
         <v>76</v>
       </c>
+      <c r="Y28">
+        <f t="shared" si="4"/>
+        <v>1.0005920211843153</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>44163</v>
       </c>
@@ -9473,11 +9587,11 @@
         <v>1388.6389999999999</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.27069999999981</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.3352487214257</v>
       </c>
       <c r="H29">
@@ -9508,11 +9622,11 @@
         <v>1453.7353000000001</v>
       </c>
       <c r="R29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27120000000014</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T29" s="9">
@@ -9530,8 +9644,12 @@
       <c r="X29" t="s">
         <v>78</v>
       </c>
+      <c r="Y29">
+        <f t="shared" si="4"/>
+        <v>1.0006250439033133</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>44163</v>
       </c>
@@ -9548,11 +9666,11 @@
         <v>1388.7447</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.19029999999998</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.25336036049322</v>
       </c>
       <c r="H30">
@@ -9583,11 +9701,11 @@
         <v>1453.7380000000001</v>
       </c>
       <c r="R30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27580000000012</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T30" s="9">
@@ -9605,8 +9723,12 @@
       <c r="X30" t="s">
         <v>80</v>
       </c>
+      <c r="Y30">
+        <f t="shared" si="4"/>
+        <v>1.0006111074441419</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>44163</v>
       </c>
@@ -9623,11 +9745,11 @@
         <v>1388.8290999999999</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.12549999999987</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.18470923880663</v>
       </c>
       <c r="H31">
@@ -9658,11 +9780,11 @@
         <v>1453.7366</v>
       </c>
       <c r="R31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.28800000000001</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T31" s="9">
@@ -9680,8 +9802,12 @@
       <c r="X31" t="s">
         <v>82</v>
       </c>
+      <c r="Y31">
+        <f t="shared" si="4"/>
+        <v>1.0005741474107448</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>44163</v>
       </c>
@@ -9698,11 +9824,11 @@
         <v>1388.9752000000001</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.01860000000011</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.08161785488377</v>
       </c>
       <c r="H32">
@@ -9733,11 +9859,11 @@
         <v>1453.7412999999999</v>
       </c>
       <c r="R32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27559999999994</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T32" s="9">
@@ -9755,8 +9881,12 @@
       <c r="X32" t="s">
         <v>84</v>
       </c>
+      <c r="Y32">
+        <f t="shared" si="4"/>
+        <v>1.0006117133690777</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>44163</v>
       </c>
@@ -9773,11 +9903,11 @@
         <v>1389.0341000000001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.97800000000007</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.03927713106212</v>
       </c>
       <c r="H33">
@@ -9808,11 +9938,11 @@
         <v>1453.7394999999999</v>
       </c>
       <c r="R33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.28109999999992</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T33" s="9">
@@ -9830,8 +9960,12 @@
       <c r="X33" t="s">
         <v>86</v>
       </c>
+      <c r="Y33">
+        <f t="shared" si="4"/>
+        <v>1.0005950507007522</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>44163</v>
       </c>
@@ -9848,11 +9982,11 @@
         <v>1389.0886</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.9516000000001</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103.01298617967819</v>
       </c>
       <c r="H34">
@@ -9883,11 +10017,11 @@
         <v>1453.7388000000001</v>
       </c>
       <c r="R34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.28070000000002</v>
       </c>
       <c r="S34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T34" s="9">
@@ -9905,8 +10039,12 @@
       <c r="X34" t="s">
         <v>88</v>
       </c>
+      <c r="Y34">
+        <f t="shared" si="4"/>
+        <v>1.0005962625124631</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>44163</v>
       </c>
@@ -9923,11 +10061,11 @@
         <v>1389.1459</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.92059999999992</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.98206123602974</v>
       </c>
       <c r="H35">
@@ -9958,11 +10096,11 @@
         <v>1453.7376999999999</v>
       </c>
       <c r="R35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.28039999999987</v>
       </c>
       <c r="S35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T35" s="9">
@@ -9980,8 +10118,12 @@
       <c r="X35" t="s">
         <v>90</v>
       </c>
+      <c r="Y35">
+        <f t="shared" si="4"/>
+        <v>1.0005971713731732</v>
+      </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>44163</v>
       </c>
@@ -9998,11 +10140,11 @@
         <v>1389.1937</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.88609999999994</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.9476341429211</v>
       </c>
       <c r="H36">
@@ -10033,11 +10175,11 @@
         <v>1453.7348999999999</v>
       </c>
       <c r="R36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.28009999999995</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T36" s="9">
@@ -10055,8 +10197,12 @@
       <c r="X36" t="s">
         <v>92</v>
       </c>
+      <c r="Y36">
+        <f t="shared" si="4"/>
+        <v>1.0005980802355339</v>
+      </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>44163</v>
       </c>
@@ -10073,11 +10219,11 @@
         <v>1389.2394999999999</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.8596</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.91828265104155</v>
       </c>
       <c r="H37">
@@ -10108,11 +10254,11 @@
         <v>1453.7361000000001</v>
       </c>
       <c r="R37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.28920000000016</v>
       </c>
       <c r="S37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T37" s="9">
@@ -10130,8 +10276,12 @@
       <c r="X37" t="s">
         <v>94</v>
       </c>
+      <c r="Y37">
+        <f t="shared" si="4"/>
+        <v>1.0005705121451138</v>
+      </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>44163</v>
       </c>
@@ -10148,11 +10298,11 @@
         <v>1389.2823000000001</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.83400000000006</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.8957210614892</v>
       </c>
       <c r="H38">
@@ -10183,11 +10333,11 @@
         <v>1453.7388000000001</v>
       </c>
       <c r="R38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27940000000012</v>
       </c>
       <c r="S38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T38" s="9">
@@ -10205,8 +10355,12 @@
       <c r="X38" t="s">
         <v>96</v>
       </c>
+      <c r="Y38">
+        <f t="shared" si="4"/>
+        <v>1.0006002009207959</v>
+      </c>
     </row>
-    <row r="39" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>44163</v>
       </c>
@@ -10223,11 +10377,11 @@
         <v>1389.3024</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.82130000000006</v>
       </c>
       <c r="G39" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.88301343893751</v>
       </c>
       <c r="H39" s="12">
@@ -10258,11 +10412,11 @@
         <v>1453.7388000000001</v>
       </c>
       <c r="R39" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27940000000012</v>
       </c>
       <c r="S39" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T39" s="17">
@@ -10280,8 +10434,12 @@
       <c r="X39" s="12" t="s">
         <v>96</v>
       </c>
+      <c r="Y39">
+        <f t="shared" si="4"/>
+        <v>1.0006002009207959</v>
+      </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>44163</v>
       </c>
@@ -10298,11 +10456,11 @@
         <v>1389.3218999999999</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.80749999999989</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.87175920108977</v>
       </c>
       <c r="H40">
@@ -10333,11 +10491,11 @@
         <v>1453.7405000000001</v>
       </c>
       <c r="R40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27120000000014</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T40" s="9">
@@ -10355,8 +10513,12 @@
       <c r="X40" t="s">
         <v>100</v>
       </c>
+      <c r="Y40">
+        <f t="shared" si="4"/>
+        <v>1.0006250439033133</v>
+      </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>44163</v>
       </c>
@@ -10373,11 +10535,11 @@
         <v>1389.3321000000001</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.7958000000001</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.86005188807631</v>
       </c>
       <c r="H41">
@@ -10408,11 +10570,11 @@
         <v>1453.7405000000001</v>
       </c>
       <c r="R41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27120000000014</v>
       </c>
       <c r="S41" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T41" s="9">
@@ -10430,8 +10592,12 @@
       <c r="X41" t="s">
         <v>100</v>
       </c>
+      <c r="Y41">
+        <f t="shared" si="4"/>
+        <v>1.0006250439033133</v>
+      </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>44163</v>
       </c>
@@ -10448,11 +10614,11 @@
         <v>1389.3430000000001</v>
       </c>
       <c r="F42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.78760000000011</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.85281216241728</v>
       </c>
       <c r="H42">
@@ -10483,11 +10649,11 @@
         <v>1453.739</v>
       </c>
       <c r="R42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.2681</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T42" s="9">
@@ -10505,8 +10671,12 @@
       <c r="X42" t="s">
         <v>102</v>
       </c>
+      <c r="Y42">
+        <f t="shared" si="4"/>
+        <v>1.000634436083897</v>
+      </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>44163</v>
       </c>
@@ -10523,11 +10693,11 @@
         <v>1389.3657000000001</v>
       </c>
       <c r="F43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.78110000000015</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.8446887711403</v>
       </c>
       <c r="H43">
@@ -10558,11 +10728,11 @@
         <v>1453.7335</v>
       </c>
       <c r="R43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27330000000006</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T43" s="9">
@@ -10580,8 +10750,12 @@
       <c r="X43" t="s">
         <v>108</v>
       </c>
+      <c r="Y43">
+        <f t="shared" si="4"/>
+        <v>1.0006186815585758</v>
+      </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>44163</v>
       </c>
@@ -10598,11 +10772,11 @@
         <v>1389.3697</v>
       </c>
       <c r="F44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.77340000000004</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.83256275255833</v>
       </c>
       <c r="H44">
@@ -10633,11 +10807,11 @@
         <v>1453.7363</v>
       </c>
       <c r="R44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.28750000000014</v>
       </c>
       <c r="S44" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T44" s="9">
@@ -10655,8 +10829,12 @@
       <c r="X44" t="s">
         <v>110</v>
       </c>
+      <c r="Y44">
+        <f t="shared" si="4"/>
+        <v>1.0005756621125534</v>
+      </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44163</v>
       </c>
@@ -10673,11 +10851,11 @@
         <v>1389.3779999999999</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.76779999999985</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.83047762867913</v>
       </c>
       <c r="H45">
@@ -10708,11 +10886,11 @@
         <v>1453.7347</v>
       </c>
       <c r="R45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27620000000002</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T45" s="9">
@@ -10730,8 +10908,12 @@
       <c r="X45" t="s">
         <v>112</v>
       </c>
+      <c r="Y45">
+        <f t="shared" si="4"/>
+        <v>1.0006098955964737</v>
+      </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>44163</v>
       </c>
@@ -10748,11 +10930,11 @@
         <v>1389.3785</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102.75990000000002</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.82173224531331</v>
       </c>
       <c r="H46">
@@ -10783,11 +10965,11 @@
         <v>1453.7388000000001</v>
       </c>
       <c r="R46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.27890000000002</v>
       </c>
       <c r="S46" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T46" s="9">
@@ -10805,8 +10987,12 @@
       <c r="X46" t="s">
         <v>114</v>
       </c>
+      <c r="Y46">
+        <f t="shared" si="4"/>
+        <v>1.0006017157014877</v>
+      </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>44163</v>
       </c>
@@ -10823,11 +11009,11 @@
         <v>1389.3815999999999</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F57" si="8">E47-D47</f>
+        <f t="shared" ref="F47:F57" si="9">E47-D47</f>
         <v>102.75689999999986</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" ref="G47:G57" si="9">F47*S47/R47</f>
+        <f t="shared" ref="G47:G57" si="10">F47*S47/R47</f>
         <v>102.81720504964085</v>
       </c>
       <c r="H47">
@@ -10858,11 +11044,11 @@
         <v>1453.7393999999999</v>
       </c>
       <c r="R47">
-        <f t="shared" ref="R47:R57" si="10">Q47-O47</f>
+        <f t="shared" ref="R47:R57" si="11">Q47-O47</f>
         <v>330.28379999999993</v>
       </c>
       <c r="S47" s="9">
-        <f t="shared" ref="S47:S57" si="11">V47-T47</f>
+        <f t="shared" ref="S47:S57" si="12">V47-T47</f>
         <v>330.47763400000008</v>
       </c>
       <c r="T47" s="9">
@@ -10880,8 +11066,12 @@
       <c r="X47" t="s">
         <v>116</v>
       </c>
+      <c r="Y47">
+        <f t="shared" si="4"/>
+        <v>1.0005868710484744</v>
+      </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>44163</v>
       </c>
@@ -10898,11 +11088,11 @@
         <v>1389.3975</v>
       </c>
       <c r="F48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.75340000000006</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.81852820102816</v>
       </c>
       <c r="H48">
@@ -10933,11 +11123,11 @@
         <v>1453.7321999999999</v>
       </c>
       <c r="R48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.26829999999995</v>
       </c>
       <c r="S48" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T48" s="9">
@@ -10955,8 +11145,12 @@
       <c r="X48" t="s">
         <v>118</v>
       </c>
+      <c r="Y48">
+        <f t="shared" si="4"/>
+        <v>1.0006338301314419</v>
+      </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>44163</v>
       </c>
@@ -10973,11 +11167,11 @@
         <v>1389.405</v>
       </c>
       <c r="F49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.75250000000005</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.81451457024276</v>
       </c>
       <c r="H49">
@@ -11008,11 +11202,11 @@
         <v>1453.7396000000001</v>
       </c>
       <c r="R49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.27830000000017</v>
       </c>
       <c r="S49" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T49" s="9">
@@ -11030,8 +11224,12 @@
       <c r="X49" t="s">
         <v>120</v>
       </c>
+      <c r="Y49">
+        <f t="shared" si="4"/>
+        <v>1.0006035334443708</v>
+      </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>44164</v>
       </c>
@@ -11048,11 +11246,11 @@
         <v>1389.4097999999999</v>
       </c>
       <c r="F50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.74569999999994</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.81023186370976</v>
       </c>
       <c r="H50">
@@ -11083,11 +11281,11 @@
         <v>1453.7384999999999</v>
       </c>
       <c r="R50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.27019999999993</v>
       </c>
       <c r="S50" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T50" s="9">
@@ -11105,8 +11303,12 @@
       <c r="X50" t="s">
         <v>122</v>
       </c>
+      <c r="Y50">
+        <f t="shared" si="4"/>
+        <v>1.0006280736197215</v>
+      </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>44164</v>
       </c>
@@ -11123,11 +11325,11 @@
         <v>1389.4161999999999</v>
       </c>
       <c r="F51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.73179999999979</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.79610525953433</v>
       </c>
       <c r="H51">
@@ -11158,11 +11360,11 @@
         <v>1453.7322999999999</v>
       </c>
       <c r="R51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.27089999999998</v>
       </c>
       <c r="S51" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T51" s="9">
@@ -11180,8 +11382,12 @@
       <c r="X51" t="s">
         <v>124</v>
       </c>
+      <c r="Y51">
+        <f t="shared" si="4"/>
+        <v>1.0006259528163095</v>
+      </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>44164</v>
       </c>
@@ -11198,11 +11404,11 @@
         <v>1389.4318000000001</v>
       </c>
       <c r="F52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.73670000000016</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.79895403401032</v>
       </c>
       <c r="H52">
@@ -11233,11 +11439,11 @@
         <v>1453.7343000000001</v>
       </c>
       <c r="R52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.27750000000015</v>
       </c>
       <c r="S52" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T52" s="9">
@@ -11255,8 +11461,12 @@
       <c r="X52" t="s">
         <v>125</v>
       </c>
+      <c r="Y52">
+        <f t="shared" si="4"/>
+        <v>1.0006059571118224</v>
+      </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>44164</v>
       </c>
@@ -11273,11 +11483,11 @@
         <v>1389.421</v>
       </c>
       <c r="F53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.73520000000008</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.79879149902823</v>
       </c>
       <c r="H53">
@@ -11308,11 +11518,11 @@
         <v>1453.7367999999999</v>
       </c>
       <c r="R53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.27319999999986</v>
       </c>
       <c r="S53" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T53" s="9">
@@ -11330,8 +11540,12 @@
       <c r="X53" t="s">
         <v>127</v>
       </c>
+      <c r="Y53">
+        <f t="shared" si="4"/>
+        <v>1.0006189845255389</v>
+      </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>44164</v>
       </c>
@@ -11348,11 +11562,11 @@
         <v>1389.4193</v>
       </c>
       <c r="F54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.73119999999994</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.79385530650048</v>
       </c>
       <c r="H54">
@@ -11383,11 +11597,11 @@
         <v>1453.7358999999999</v>
       </c>
       <c r="R54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.27619999999979</v>
       </c>
       <c r="S54" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T54" s="9">
@@ -11405,8 +11619,12 @@
       <c r="X54" t="s">
         <v>129</v>
       </c>
+      <c r="Y54">
+        <f t="shared" si="4"/>
+        <v>1.0006098955964744</v>
+      </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>44164</v>
       </c>
@@ -11423,11 +11641,11 @@
         <v>1389.4321</v>
       </c>
       <c r="F55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.72419999999988</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.78678879430312</v>
       </c>
       <c r="H55">
@@ -11458,11 +11676,11 @@
         <v>1453.7329999999999</v>
       </c>
       <c r="R55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.27639999999997</v>
       </c>
       <c r="S55" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T55" s="9">
@@ -11480,8 +11698,12 @@
       <c r="X55" t="s">
         <v>132</v>
       </c>
+      <c r="Y55">
+        <f t="shared" si="4"/>
+        <v>1.0006092896737404</v>
+      </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>44164</v>
       </c>
@@ -11498,11 +11720,11 @@
         <v>1389.4383</v>
       </c>
       <c r="F56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.71780000000012</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.78436834602797</v>
       </c>
       <c r="H56">
@@ -11533,11 +11755,11 @@
         <v>1453.7333000000001</v>
       </c>
       <c r="R56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.2636</v>
       </c>
       <c r="S56" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T56" s="9">
@@ -11555,8 +11777,12 @@
       <c r="X56" t="s">
         <v>135</v>
       </c>
+      <c r="Y56">
+        <f t="shared" si="4"/>
+        <v>1.000648070208161</v>
+      </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>44164</v>
       </c>
@@ -11573,11 +11799,11 @@
         <v>1389.44</v>
       </c>
       <c r="F57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.72180000000003</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.78174213904794</v>
       </c>
       <c r="H57">
@@ -11608,11 +11834,11 @@
         <v>1453.741</v>
       </c>
       <c r="R57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.28489999999988</v>
       </c>
       <c r="S57" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330.47763400000008</v>
       </c>
       <c r="T57" s="9">
@@ -11630,16 +11856,24 @@
       <c r="X57" t="s">
         <v>136</v>
       </c>
+      <c r="Y57">
+        <f t="shared" si="4"/>
+        <v>1.0005835386358874</v>
+      </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D58" s="12">
         <v>1286.71825544335</v>
       </c>
       <c r="E58" s="12">
         <v>1389.4456807658701</v>
       </c>
+      <c r="Y58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>44164</v>
       </c>
@@ -11656,11 +11890,11 @@
         <v>1389.4318000000001</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62" si="12">E62-D62</f>
+        <f t="shared" ref="F62" si="13">E62-D62</f>
         <v>102.73670000000016</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" ref="G62" si="13">F62*S62/R62</f>
+        <f t="shared" ref="G62" si="14">F62*S62/R62</f>
         <v>102.79895403401032</v>
       </c>
       <c r="H62">
@@ -11691,11 +11925,11 @@
         <v>1453.7343000000001</v>
       </c>
       <c r="R62">
-        <f t="shared" ref="R62" si="14">Q62-O62</f>
+        <f t="shared" ref="R62" si="15">Q62-O62</f>
         <v>330.27750000000015</v>
       </c>
       <c r="S62" s="9">
-        <f t="shared" ref="S62" si="15">V62-T62</f>
+        <f t="shared" ref="S62" si="16">V62-T62</f>
         <v>330.47763400000008</v>
       </c>
       <c r="T62" s="9">
@@ -11714,7 +11948,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="D63" s="12">
         <v>1286.6965291617901</v>
       </c>
@@ -11733,25 +11967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05547686-82D0-477B-B94E-768A01BD3528}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8156891-BA79-4840-AC6F-FEF4D8CA7F3B}">
   <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView zoomScale="63" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
@@ -16982,6 +17202,20 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05547686-82D0-477B-B94E-768A01BD3528}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/Fityk_results.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/Fityk_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\DiadFit_outer\docs\Examples\Example1a_Gas_Cell_Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F431A0-F079-43EB-919C-BC18E21BE463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49BFDE9-151C-4B4D-8E1D-64BC613BCF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15360" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
   </bookViews>
   <sheets>
     <sheet name="112820_FULL" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="316">
   <si>
     <t>Date</t>
   </si>
@@ -7334,13 +7334,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDC9769-CDC1-424D-9AE4-8B7EF174E4CB}">
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7591,7 +7591,7 @@
         <v>26</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y58" si="4">G3/F3</f>
+        <f t="shared" ref="Y3:Y57" si="4">G3/F3</f>
         <v>1.0006092896737402</v>
       </c>
     </row>
@@ -11862,103 +11862,15 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="D58" s="12">
-        <v>1286.71825544335</v>
-      </c>
-      <c r="E58" s="12">
-        <v>1389.4456807658701</v>
-      </c>
-      <c r="Y58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B58" s="2"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
-        <v>44164</v>
-      </c>
-      <c r="B62" s="2">
-        <v>1.0121296296296296</v>
-      </c>
-      <c r="C62" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62">
-        <v>1286.6950999999999</v>
-      </c>
-      <c r="E62">
-        <v>1389.4318000000001</v>
-      </c>
-      <c r="F62">
-        <f t="shared" ref="F62" si="13">E62-D62</f>
-        <v>102.73670000000016</v>
-      </c>
-      <c r="G62" s="5">
-        <f t="shared" ref="G62" si="14">F62*S62/R62</f>
-        <v>102.79895403401032</v>
-      </c>
-      <c r="H62">
-        <v>0.1</v>
-      </c>
-      <c r="I62" s="5">
-        <v>0.10073648899421098</v>
-      </c>
-      <c r="J62" s="5">
-        <v>2.9538030401439822E-4</v>
-      </c>
-      <c r="K62" s="6">
-        <v>37</v>
-      </c>
-      <c r="L62" s="9">
-        <v>37.01</v>
-      </c>
-      <c r="M62" s="7">
-        <v>6.6666666666677088E-3</v>
-      </c>
-      <c r="N62">
-        <v>1.7260999999999999E-3</v>
-      </c>
-      <c r="O62">
-        <v>1123.4567999999999</v>
-      </c>
-      <c r="Q62">
-        <v>1453.7343000000001</v>
-      </c>
-      <c r="R62">
-        <f t="shared" ref="R62" si="15">Q62-O62</f>
-        <v>330.27750000000015</v>
-      </c>
-      <c r="S62" s="9">
-        <f t="shared" ref="S62" si="16">V62-T62</f>
-        <v>330.47763400000008</v>
-      </c>
-      <c r="T62" s="9">
-        <v>1122.7762889999999</v>
-      </c>
-      <c r="U62" s="9">
-        <v>1225.7967639999999</v>
-      </c>
-      <c r="V62" s="9">
-        <v>1453.253923</v>
-      </c>
-      <c r="W62" t="s">
-        <v>170</v>
-      </c>
-      <c r="X62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="D63" s="12">
-        <v>1286.6965291617901</v>
-      </c>
-      <c r="E63" s="12">
-        <v>1389.43727525135</v>
-      </c>
-      <c r="F63">
-        <f>E63-D63</f>
-        <v>102.74074608955993</v>
-      </c>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/Examples/Example1a_Gas_Cell_Calibration/Fityk_results.xlsx
+++ b/docs/Examples/Example1a_Gas_Cell_Calibration/Fityk_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\DiadFit_outer\docs\Examples\Example1a_Gas_Cell_Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\Examples\Example1a_Gas_Cell_Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49BFDE9-151C-4B4D-8E1D-64BC613BCF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD06726-1106-4511-B7FF-EDE5AC4AD834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
   </bookViews>
   <sheets>
     <sheet name="112820_FULL" sheetId="1" r:id="rId1"/>
@@ -7337,10 +7337,10 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
